--- a/biology/Médecine/Exposition_(rayonnement_ionisant)/Exposition_(rayonnement_ionisant).xlsx
+++ b/biology/Médecine/Exposition_(rayonnement_ionisant)/Exposition_(rayonnement_ionisant).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exposition est une grandeur qui quantifie, dans milieu rempli d'air soumis à un flux de rayonnements ionisants X ou gamma, la charge électrique produite par les ions de même signe créés par unité de masse[1]. Elle repose sur le postulat approximatif selon lequel les particules secondaires produites par le faisceau de photons dans un élément de masse d'air, déposent toute leur énergie cinétique dans ce même élément. Comme pour le kerma, il est également possible de parler d'exposition dans un milieu autre que l'air par exemple l'eau[1].
-Jusqu'aux années 1950, l'exposition constitue la principale grandeur physique permettant de quantifier l'interaction d'un flux de photons. Mais les ionisations dues aux processus radiatifs des particules secondaires ne sont pas prises en compte dans l'exposition, contrairement au kerma[1]. Cela amène à une erreur pour des mesures d'exposition à des photons de haute énergie, où la part des processus radiatifs est plus importante. Inadaptée à la mesure pratique des rayonnements particulaires et des rayonnements de photons d'énergie supérieure à 3 MeV[2], on lui préfère aujourd'hui la grandeur de dose absorbée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition est une grandeur qui quantifie, dans milieu rempli d'air soumis à un flux de rayonnements ionisants X ou gamma, la charge électrique produite par les ions de même signe créés par unité de masse. Elle repose sur le postulat approximatif selon lequel les particules secondaires produites par le faisceau de photons dans un élément de masse d'air, déposent toute leur énergie cinétique dans ce même élément. Comme pour le kerma, il est également possible de parler d'exposition dans un milieu autre que l'air par exemple l'eau.
+Jusqu'aux années 1950, l'exposition constitue la principale grandeur physique permettant de quantifier l'interaction d'un flux de photons. Mais les ionisations dues aux processus radiatifs des particules secondaires ne sont pas prises en compte dans l'exposition, contrairement au kerma. Cela amène à une erreur pour des mesures d'exposition à des photons de haute énergie, où la part des processus radiatifs est plus importante. Inadaptée à la mesure pratique des rayonnements particulaires et des rayonnements de photons d'énergie supérieure à 3 MeV, on lui préfère aujourd'hui la grandeur de dose absorbée.
 L'exposition est initialement exprimée en röntgens (R), l'unité proposée par le Comité international des unités de rayons X au Congrès de 1928. Dans le Système international, l'exposition s'exprime en coulombs par kilogramme, avec 1 R = 0,258 mC/kg.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa formulation moderne l'exposition (notée X) est le quotient de ΔQ par Δm où :
 Δm est la masse d'un élément de volume d'air soumis à un faisceau de rayons X ou gamma ;
@@ -556,10 +570,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte des rayons X par Wilhelm Röntgen en 1895 donne naissance à la radiologie puis à la radiothérapie. Une fois passé l'enthousiasme initial, on découvre les dangers des rayonnements ionisants, et la question de la dose apparaît[3] : comment faire pour mesurer une quantité de rayons X ? Comment faire pour en donner juste assez, ni trop, ni trop  peu ? Différents moyens (essentiellement chimiques) sont mis au point durant les années 1900 et 1910[4]. On utilise également la dose érythémateuse, c'est-à-dire la quantité de rayons X nécessaires pour provoquer un érythème radio-induit.
-Ces moyens, satisfaisants en radiologie, ne sont cependant pas assez précis pour la radiothérapie[5]. À ce point commence la véritable histoire de la dose absorbée et de l'exposition[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte des rayons X par Wilhelm Röntgen en 1895 donne naissance à la radiologie puis à la radiothérapie. Une fois passé l'enthousiasme initial, on découvre les dangers des rayonnements ionisants, et la question de la dose apparaît : comment faire pour mesurer une quantité de rayons X ? Comment faire pour en donner juste assez, ni trop, ni trop  peu ? Différents moyens (essentiellement chimiques) sont mis au point durant les années 1900 et 1910. On utilise également la dose érythémateuse, c'est-à-dire la quantité de rayons X nécessaires pour provoquer un érythème radio-induit.
+Ces moyens, satisfaisants en radiologie, ne sont cependant pas assez précis pour la radiothérapie. À ce point commence la véritable histoire de la dose absorbée et de l'exposition :
 </t>
         </is>
       </c>
@@ -588,7 +604,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dose radiative | Gray | Rad | Röntgen
 Dose équivalente | Dose efficace | Sievert
